--- a/StructureDefinition-death-certificate-observation.xlsx
+++ b/StructureDefinition-death-certificate-observation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$51</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="447">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T23:50:16+00:00</t>
+    <t>2021-09-14T04:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -655,6 +655,14 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="64297-5"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>example</t>
   </si>
   <si>
@@ -856,10 +864,6 @@
   </si>
   <si>
     <t>Observation.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -1332,9 +1336,6 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Component results</t>
   </si>
   <si>
@@ -1345,16 +1346,6 @@
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:code}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the component.code pattern</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>containment by OBX-4?</t>
@@ -1391,6 +1382,10 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
     <t>Actual component result</t>
   </si>
   <si>
@@ -1423,32 +1418,6 @@
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
-  </si>
-  <si>
-    <t>deathCertificateNumber</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="64297-5"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>deceasedDate</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="81954-0"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1745,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO69"/>
+  <dimension ref="A1:AO51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1786,7 +1755,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.2265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1812,7 +1781,7 @@
     <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="41.24609375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -3642,7 +3611,7 @@
         <v>82</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>82</v>
@@ -3657,13 +3626,13 @@
         <v>82</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>82</v>
@@ -3696,27 +3665,27 @@
         <v>104</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3739,19 +3708,19 @@
         <v>93</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>82</v>
@@ -3800,7 +3769,7 @@
         <v>82</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>80</v>
@@ -3815,19 +3784,19 @@
         <v>104</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>82</v>
@@ -3835,7 +3804,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3858,16 +3827,16 @@
         <v>93</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3917,7 +3886,7 @@
         <v>82</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>80</v>
@@ -3938,13 +3907,13 @@
         <v>82</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>82</v>
@@ -3952,11 +3921,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3975,19 +3944,19 @@
         <v>93</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>82</v>
@@ -4036,7 +4005,7 @@
         <v>82</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>80</v>
@@ -4051,19 +4020,19 @@
         <v>104</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4071,11 +4040,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4094,19 +4063,19 @@
         <v>93</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>82</v>
@@ -4155,7 +4124,7 @@
         <v>82</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>80</v>
@@ -4170,19 +4139,19 @@
         <v>104</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4190,7 +4159,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4213,16 +4182,16 @@
         <v>93</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4272,7 +4241,7 @@
         <v>82</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>80</v>
@@ -4293,13 +4262,13 @@
         <v>82</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4307,7 +4276,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4330,17 +4299,17 @@
         <v>93</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>82</v>
@@ -4389,7 +4358,7 @@
         <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>80</v>
@@ -4404,19 +4373,19 @@
         <v>104</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4424,7 +4393,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4447,7 +4416,7 @@
         <v>93</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>270</v>
+        <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>271</v>
@@ -4508,7 +4477,7 @@
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>80</v>
@@ -4958,7 +4927,7 @@
         <v>82</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X27" t="s" s="2">
         <v>314</v>
@@ -5077,7 +5046,7 @@
         <v>82</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X28" t="s" s="2">
         <v>325</v>
@@ -6249,7 +6218,7 @@
         <v>82</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X38" t="s" s="2">
         <v>394</v>
@@ -6782,7 +6751,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>81</v>
@@ -6800,16 +6769,16 @@
         <v>348</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>82</v>
@@ -6846,16 +6815,16 @@
         <v>82</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>425</v>
+        <v>82</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>426</v>
+        <v>82</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>419</v>
@@ -6879,10 +6848,10 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>82</v>
@@ -6893,7 +6862,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7008,7 +6977,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7125,7 +7094,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7244,7 +7213,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7270,13 +7239,13 @@
         <v>190</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>204</v>
@@ -7304,13 +7273,13 @@
         <v>82</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>82</v>
@@ -7328,7 +7297,7 @@
         <v>82</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>92</v>
@@ -7346,16 +7315,16 @@
         <v>82</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7363,7 +7332,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7386,16 +7355,16 @@
         <v>93</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>270</v>
+        <v>435</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>272</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>274</v>
@@ -7447,7 +7416,7 @@
         <v>82</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>80</v>
@@ -7465,7 +7434,7 @@
         <v>82</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>277</v>
@@ -7482,7 +7451,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7508,13 +7477,13 @@
         <v>190</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>284</v>
@@ -7566,7 +7535,7 @@
         <v>82</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>80</v>
@@ -7601,7 +7570,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7685,7 +7654,7 @@
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>80</v>
@@ -7720,7 +7689,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7746,10 +7715,10 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>351</v>
@@ -7804,7 +7773,7 @@
         <v>82</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>80</v>
@@ -7837,2142 +7806,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AO69">
+  <autoFilter ref="A1:AO51">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9982,7 +7817,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI68">
+  <conditionalFormatting sqref="A2:AI50">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-death-certificate-observation.xlsx
+++ b/StructureDefinition-death-certificate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T04:26:25+00:00</t>
+    <t>2021-09-16T21:56:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-death-certificate-observation.xlsx
+++ b/StructureDefinition-death-certificate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-16T21:56:02+00:00</t>
+    <t>2022-01-27T20:53:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-death-certificate-observation.xlsx
+++ b/StructureDefinition-death-certificate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T20:53:37+00:00</t>
+    <t>2022-01-27T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-death-certificate-observation.xlsx
+++ b/StructureDefinition-death-certificate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:03:35+00:00</t>
+    <t>2022-01-27T21:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-death-certificate-observation.xlsx
+++ b/StructureDefinition-death-certificate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:13:11+00:00</t>
+    <t>2022-01-27T21:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-death-certificate-observation.xlsx
+++ b/StructureDefinition-death-certificate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:19:29+00:00</t>
+    <t>2022-01-27T21:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-death-certificate-observation.xlsx
+++ b/StructureDefinition-death-certificate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:25:27+00:00</t>
+    <t>2022-01-27T21:29:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-death-certificate-observation.xlsx
+++ b/StructureDefinition-death-certificate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:29:22+00:00</t>
+    <t>2022-01-27T21:47:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-death-certificate-observation.xlsx
+++ b/StructureDefinition-death-certificate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:47:10+00:00</t>
+    <t>2022-01-27T21:52:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-death-certificate-observation.xlsx
+++ b/StructureDefinition-death-certificate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:52:37+00:00</t>
+    <t>2022-01-27T21:52:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-death-certificate-observation.xlsx
+++ b/StructureDefinition-death-certificate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:52:46+00:00</t>
+    <t>2022-02-05T00:41:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-death-certificate-observation.xlsx
+++ b/StructureDefinition-death-certificate-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-05T00:41:59+00:00</t>
+    <t>2022-02-05T01:33:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
